--- a/inception/story map.xlsx
+++ b/inception/story map.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Epic</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>delete batch auctions</t>
+  </si>
+  <si>
+    <t>support other currencies</t>
   </si>
   <si>
     <t>set buy it now price</t>
@@ -458,7 +461,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100">
-      <selection activeCell="G47" activeCellId="0" pane="topLeft" sqref="G47"/>
+      <selection activeCell="H18" activeCellId="0" pane="topLeft" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -665,42 +668,44 @@
       <c r="G17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22" s="8">
       <c r="A22" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>

--- a/inception/story map.xlsx
+++ b/inception/story map.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Epic</t>
   </si>
@@ -161,7 +161,7 @@
     <t>delete batch auctions</t>
   </si>
   <si>
-    <t>support other currencies</t>
+    <t>pay with other currency than what is listed</t>
   </si>
   <si>
     <t>set buy it now price</t>
@@ -173,6 +173,9 @@
     <t>Suspend user</t>
   </si>
   <si>
+    <t>place bid using other currency</t>
+  </si>
+  <si>
     <t>Iteration 5</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
   </si>
   <si>
     <t>categorize auction</t>
+  </si>
+  <si>
+    <t>view auction bid in other currencies</t>
   </si>
 </sst>
 </file>
@@ -461,7 +467,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100">
-      <selection activeCell="H18" activeCellId="0" pane="topLeft" sqref="H18"/>
+      <selection activeCell="F18" activeCellId="0" pane="topLeft" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
@@ -473,7 +479,7 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.3010204081633"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8010204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.0612244897959"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="52.9795918367347"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.3826530612245"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.0510204081633"/>
@@ -685,27 +691,32 @@
         <v>51</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="M18" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22" s="8">
       <c r="A22" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -714,6 +725,9 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="9"/>
+      <c r="B23" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="9"/>

--- a/inception/story map.xlsx
+++ b/inception/story map.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Epic</t>
   </si>
@@ -23,18 +23,12 @@
     <t>View Auctions</t>
   </si>
   <si>
-    <t>Manage User</t>
-  </si>
-  <si>
     <t>Search Auctions</t>
   </si>
   <si>
     <t>Flag Auction</t>
   </si>
   <si>
-    <t>Categorize Auction</t>
-  </si>
-  <si>
     <t>Delete Auction</t>
   </si>
   <si>
@@ -173,6 +167,9 @@
     <t>Suspend user</t>
   </si>
   <si>
+    <t>categorize auction</t>
+  </si>
+  <si>
     <t>place bid using other currency</t>
   </si>
   <si>
@@ -182,13 +179,10 @@
     <t>view ended auctions</t>
   </si>
   <si>
+    <t>pay with bitcoin</t>
+  </si>
+  <si>
     <t>categorize auction with new category</t>
-  </si>
-  <si>
-    <t>pay with bitcoin</t>
-  </si>
-  <si>
-    <t>categorize auction</t>
   </si>
   <si>
     <t>view auction bid in other currencies</t>
@@ -206,6 +200,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -228,6 +223,7 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -253,13 +249,6 @@
       <diagonal/>
     </border>
     <border diagonalDown="false" diagonalUp="false">
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalDown="false" diagonalUp="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -277,6 +266,13 @@
       <left/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -334,12 +330,12 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -351,23 +347,35 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="3" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="4" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -464,293 +472,343 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O26"/>
+  <dimension ref="1:26"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100">
-      <selection activeCell="F18" activeCellId="0" pane="topLeft" sqref="F18"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100">
+      <selection activeCell="M10" activeCellId="0" pane="topLeft" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6785714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.3010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8010204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.0612244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="52.9795918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.3826530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="18.0510204081633"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.4336734693878"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.8877551020408"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="14.1224489795918"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="20.6734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.0612244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="52.9795918367347"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.3826530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.6326530612245"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.4336734693878"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.8877551020408"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.1224489795918"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.6734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1" s="5">
-      <c r="A1" s="2" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1" s="4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2" s="8">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2" s="8">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="9"/>
+      <c r="I3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="J3" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="K3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>25</v>
-      </c>
+      <c r="M3" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7" s="8">
       <c r="A7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
+      <c r="AMI7" s="0"/>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="9"/>
+      <c r="K8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N7" s="6"/>
-      <c r="O7" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="M8" s="0" t="s">
-        <v>33</v>
-      </c>
+      <c r="M8" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12" s="8">
       <c r="A12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="L12" s="6"/>
+      <c r="M12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
+      <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="9"/>
+      <c r="H13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
-      <c r="J13" s="0" t="s">
-        <v>43</v>
-      </c>
+      <c r="M13" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="9"/>
+      <c r="M16" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17" s="8">
       <c r="A17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6" t="s">
+      <c r="AMI17" s="0"/>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="9"/>
+      <c r="I18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="7" t="s">
+      <c r="K18" s="10" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
-      <c r="M18" s="0" t="s">
-        <v>52</v>
-      </c>
+      <c r="M18" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="9"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="A20" s="9"/>
+      <c r="M20" s="9"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+      <c r="A21" s="9"/>
+      <c r="M21" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22" s="8">
       <c r="A22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="7"/>
+      <c r="AMI22" s="0"/>
+      <c r="AMJ22" s="0"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
+      <c r="A23" s="12"/>
+      <c r="B23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
-      <c r="A23" s="9"/>
-      <c r="B23" s="0" t="s">
-        <v>58</v>
-      </c>
+      <c r="M23" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
-      <c r="A24" s="9"/>
+      <c r="A24" s="12"/>
+      <c r="M24" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="12"/>
+      <c r="M25" s="9"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="12"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
